--- a/current-excel-manifests/AssayTMTquantitationMetadataTemplate.xlsx
+++ b/current-excel-manifests/AssayTMTquantitationMetadataTemplate.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="223">
   <si>
     <t>Component</t>
   </si>
@@ -364,262 +364,268 @@
     <t>IlluminaHumanMethylation450</t>
   </si>
   <si>
-    <t>Immunocytochemistry</t>
+    <t>Illumina EPIC Array</t>
   </si>
   <si>
     <t>IlluminaInfiniumGSAMD-24v2-0</t>
   </si>
   <si>
-    <t>immunofluorescence</t>
+    <t>Immunocytochemistry</t>
   </si>
   <si>
     <t>IlluminaMethylationEPIC</t>
   </si>
   <si>
-    <t>immunohistochemistry</t>
+    <t>immunofluorescence</t>
   </si>
   <si>
     <t>IlluminaMiSeq</t>
   </si>
   <si>
-    <t>in vivo bioluminescence</t>
+    <t>immunohistochemistry</t>
   </si>
   <si>
     <t>IlluminaNovaseq6000</t>
   </si>
   <si>
-    <t>ISOSeq</t>
+    <t>in vivo bioluminescence</t>
   </si>
   <si>
     <t>IlluminaWholeGenomeDASL</t>
   </si>
   <si>
-    <t>jumpingLibrary</t>
+    <t>ISOSeq</t>
   </si>
   <si>
     <t>Infinium Global Diversity Array-8</t>
   </si>
   <si>
-    <t>kinesthetic behavior</t>
+    <t>jumpingLibrary</t>
   </si>
   <si>
     <t>Infinium HumanOmniExpressExome</t>
   </si>
   <si>
-    <t>label free mass spectrometry</t>
+    <t>kinesthetic behavior</t>
   </si>
   <si>
     <t>Infinium Omni2.5Exome-8 v1.1</t>
   </si>
   <si>
-    <t>Laser Speckle Imaging</t>
+    <t>label free mass spectrometry</t>
   </si>
   <si>
     <t>Infinium Omni2.5Exome-8 v1.3</t>
   </si>
   <si>
-    <t>LC-MS</t>
+    <t>Laser Speckle Imaging</t>
   </si>
   <si>
     <t>Infinium Omni2.5Exome-8 v1.4</t>
   </si>
   <si>
-    <t>LC-MSMS</t>
+    <t>LC-MS</t>
   </si>
   <si>
     <t>Infinium Omni2.5Exome-8 v1.5</t>
   </si>
   <si>
-    <t>LC-SRM</t>
+    <t>LC-MSMS</t>
   </si>
   <si>
     <t>InfiniumPsychArrayBeadChip</t>
   </si>
   <si>
-    <t>Leiden Oxylipins</t>
+    <t>LC-SRM</t>
   </si>
   <si>
     <t>Leco Pegasus IV</t>
   </si>
   <si>
-    <t>lentiMPRA</t>
+    <t>Leiden Oxylipins</t>
   </si>
   <si>
     <t>llumina Infinium General Screening Array 24-Kit v3.0</t>
   </si>
   <si>
-    <t>LFP</t>
+    <t>lentiMPRA</t>
   </si>
   <si>
     <t>LTQOrbitrapXL</t>
   </si>
   <si>
-    <t>liquid chromatography-electrochemical detection</t>
+    <t>LFP</t>
   </si>
   <si>
     <t>MiSeq</t>
   </si>
   <si>
-    <t>lncrnaSeq</t>
+    <t>liquid chromatography-electrochemical detection</t>
   </si>
   <si>
     <t>NanostringnCounter</t>
   </si>
   <si>
-    <t>locomotor activation behavior</t>
+    <t>lncrnaSeq</t>
   </si>
   <si>
     <t>NanostringnCounter_MouseADPanel</t>
   </si>
   <si>
-    <t>long-read rnaSeq</t>
+    <t>locomotor activation behavior</t>
   </si>
   <si>
     <t>NextSeq2000</t>
   </si>
   <si>
-    <t>LTP</t>
+    <t>long-read rnaSeq</t>
   </si>
   <si>
     <t>NextSeq500</t>
   </si>
   <si>
-    <t>m6A-rnaSeq</t>
+    <t>LTP</t>
   </si>
   <si>
     <t>Olink Target 96</t>
   </si>
   <si>
-    <t>MDMS-SL</t>
+    <t>m6A-rnaSeq</t>
   </si>
   <si>
     <t>orbitrap</t>
   </si>
   <si>
-    <t>memory behavior</t>
+    <t>MDMS-SL</t>
   </si>
   <si>
     <t>Orbitrap Exploris 240</t>
   </si>
   <si>
-    <t>Metabolon</t>
+    <t>memory behavior</t>
   </si>
   <si>
     <t>OrbiTrap Fusion</t>
   </si>
   <si>
-    <t>methylationArray</t>
+    <t>Metabolon</t>
   </si>
   <si>
     <t>Orbitrap Fusion Lumos</t>
   </si>
   <si>
-    <t>MIB/MS</t>
+    <t>methylationArray</t>
   </si>
   <si>
     <t>PacBio Sequel II</t>
   </si>
   <si>
-    <t>microRNAcounts</t>
+    <t>MIB/MS</t>
   </si>
   <si>
     <t>PacBio Sequel IIe</t>
   </si>
   <si>
-    <t>mirnaArray</t>
+    <t>microRNAcounts</t>
   </si>
   <si>
     <t>PacBioRSII</t>
   </si>
   <si>
-    <t>mirnaSeq</t>
+    <t>mirnaArray</t>
   </si>
   <si>
     <t>Perlegen300Karray</t>
   </si>
   <si>
-    <t>MRI</t>
+    <t>mirnaSeq</t>
   </si>
   <si>
     <t>PsychChip</t>
   </si>
   <si>
-    <t>mRNAcounts</t>
+    <t>MRI</t>
   </si>
   <si>
     <t>Q Exactive</t>
   </si>
   <si>
-    <t>MudPIT</t>
+    <t>mRNAcounts</t>
   </si>
   <si>
     <t>Q Exactive HF</t>
   </si>
   <si>
-    <t>nextGenerationTargetedSequencing</t>
+    <t>mRNAseq</t>
   </si>
   <si>
     <t>Q Exactive HF-X</t>
   </si>
   <si>
-    <t>Nightingale NMR</t>
+    <t>MudPIT</t>
   </si>
   <si>
     <t>Q Exactive Plus</t>
   </si>
   <si>
-    <t>NOMe-Seq</t>
+    <t>nextGenerationTargetedSequencing</t>
   </si>
   <si>
     <t>quadrupole time-of-flight</t>
   </si>
   <si>
-    <t>novelty response behavior</t>
+    <t>Nightingale NMR</t>
   </si>
   <si>
     <t>Roche Cobas</t>
   </si>
   <si>
-    <t>open field test</t>
+    <t>NOMe-Seq</t>
   </si>
   <si>
     <t>SequenomMultiplex</t>
   </si>
   <si>
-    <t>oxBS-Seq</t>
+    <t>novelty response behavior</t>
   </si>
   <si>
     <t>Signa Premier AIR 3T</t>
   </si>
   <si>
-    <t>pharmacodynamics</t>
+    <t>open field test</t>
   </si>
   <si>
     <t>Simoa HD-1 Analyzer</t>
   </si>
   <si>
-    <t>pharmacokinetics</t>
+    <t>oxBS-Seq</t>
   </si>
   <si>
     <t>time-of-flight</t>
   </si>
   <si>
-    <t>photograph</t>
+    <t>pharmacodynamics</t>
   </si>
   <si>
     <t>triple quadrupole</t>
   </si>
   <si>
-    <t>polymeraseChainReaction</t>
+    <t>pharmacokinetics</t>
   </si>
   <si>
     <t>Xevo G2 QTOF</t>
   </si>
   <si>
-    <t>Positron Emission Tomography</t>
+    <t>photograph</t>
   </si>
   <si>
     <t>Xevo TQ-S</t>
+  </si>
+  <si>
+    <t>polymeraseChainReaction</t>
+  </si>
+  <si>
+    <t>Positron Emission Tomography</t>
   </si>
   <si>
     <t>proximity extension assay</t>
@@ -647,6 +653,9 @@
   </si>
   <si>
     <t>RPPA</t>
+  </si>
+  <si>
+    <t>RRBS</t>
   </si>
   <si>
     <t>sandwich ELISA</t>
@@ -692,6 +701,9 @@
   </si>
   <si>
     <t>TMT quantitation</t>
+  </si>
+  <si>
+    <t>TotalRNAseq</t>
   </si>
   <si>
     <t>tractionForceMicroscopy</t>
@@ -28090,7 +28102,7 @@
       <formula1>Sheet2!$E$2:$E$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="C2:C1000">
-      <formula1>Sheet2!$C$2:$C$119</formula1>
+      <formula1>Sheet2!$C$2:$C$123</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId2"/>
@@ -29003,6 +29015,26 @@
         <v>218</v>
       </c>
     </row>
+    <row r="120">
+      <c r="C120" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="C121" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="C122" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="C123" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/current-excel-manifests/AssayTMTquantitationMetadataTemplate.xlsx
+++ b/current-excel-manifests/AssayTMTquantitationMetadataTemplate.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="225">
   <si>
     <t>Component</t>
   </si>
@@ -391,241 +391,247 @@
     <t>in vivo bioluminescence</t>
   </si>
   <si>
-    <t>IlluminaWholeGenomeDASL</t>
+    <t>IlluminaNovaSeqX</t>
   </si>
   <si>
     <t>ISOSeq</t>
   </si>
   <si>
-    <t>Infinium Global Diversity Array-8</t>
+    <t>IlluminaNovaSeqXplus</t>
   </si>
   <si>
     <t>jumpingLibrary</t>
   </si>
   <si>
-    <t>Infinium HumanOmniExpressExome</t>
+    <t>IlluminaWholeGenomeDASL</t>
   </si>
   <si>
     <t>kinesthetic behavior</t>
   </si>
   <si>
-    <t>Infinium Omni2.5Exome-8 v1.1</t>
+    <t>Infinium Global Diversity Array-8</t>
   </si>
   <si>
     <t>label free mass spectrometry</t>
   </si>
   <si>
-    <t>Infinium Omni2.5Exome-8 v1.3</t>
+    <t>Infinium HumanOmniExpressExome</t>
   </si>
   <si>
     <t>Laser Speckle Imaging</t>
   </si>
   <si>
-    <t>Infinium Omni2.5Exome-8 v1.4</t>
+    <t>Infinium Omni2.5Exome-8 v1.1</t>
   </si>
   <si>
     <t>LC-MS</t>
   </si>
   <si>
-    <t>Infinium Omni2.5Exome-8 v1.5</t>
+    <t>Infinium Omni2.5Exome-8 v1.3</t>
   </si>
   <si>
     <t>LC-MSMS</t>
   </si>
   <si>
-    <t>InfiniumPsychArrayBeadChip</t>
+    <t>Infinium Omni2.5Exome-8 v1.4</t>
   </si>
   <si>
     <t>LC-SRM</t>
   </si>
   <si>
-    <t>Leco Pegasus IV</t>
+    <t>Infinium Omni2.5Exome-8 v1.5</t>
   </si>
   <si>
     <t>Leiden Oxylipins</t>
   </si>
   <si>
-    <t>llumina Infinium General Screening Array 24-Kit v3.0</t>
+    <t>InfiniumPsychArrayBeadChip</t>
   </si>
   <si>
     <t>lentiMPRA</t>
   </si>
   <si>
-    <t>LTQOrbitrapXL</t>
+    <t>Leco Pegasus IV</t>
   </si>
   <si>
     <t>LFP</t>
   </si>
   <si>
-    <t>MiSeq</t>
+    <t>llumina Infinium General Screening Array 24-Kit v3.0</t>
   </si>
   <si>
     <t>liquid chromatography-electrochemical detection</t>
   </si>
   <si>
-    <t>NanostringnCounter</t>
+    <t>LTQOrbitrapXL</t>
   </si>
   <si>
     <t>lncrnaSeq</t>
   </si>
   <si>
-    <t>NanostringnCounter_MouseADPanel</t>
+    <t>MiSeq</t>
   </si>
   <si>
     <t>locomotor activation behavior</t>
   </si>
   <si>
-    <t>NextSeq2000</t>
+    <t>NanostringnCounter</t>
   </si>
   <si>
     <t>long-read rnaSeq</t>
   </si>
   <si>
-    <t>NextSeq500</t>
+    <t>NanostringnCounter_MouseADPanel</t>
   </si>
   <si>
     <t>LTP</t>
   </si>
   <si>
-    <t>Olink Target 96</t>
+    <t>NextSeq2000</t>
   </si>
   <si>
     <t>m6A-rnaSeq</t>
   </si>
   <si>
-    <t>orbitrap</t>
+    <t>NextSeq500</t>
   </si>
   <si>
     <t>MDMS-SL</t>
   </si>
   <si>
-    <t>Orbitrap Exploris 240</t>
+    <t>Olink Target 96</t>
   </si>
   <si>
     <t>memory behavior</t>
   </si>
   <si>
-    <t>OrbiTrap Fusion</t>
+    <t>orbitrap</t>
   </si>
   <si>
     <t>Metabolon</t>
   </si>
   <si>
-    <t>Orbitrap Fusion Lumos</t>
+    <t>Orbitrap Exploris 240</t>
   </si>
   <si>
     <t>methylationArray</t>
   </si>
   <si>
-    <t>PacBio Sequel II</t>
+    <t>OrbiTrap Fusion</t>
   </si>
   <si>
     <t>MIB/MS</t>
   </si>
   <si>
-    <t>PacBio Sequel IIe</t>
+    <t>Orbitrap Fusion Lumos</t>
   </si>
   <si>
     <t>microRNAcounts</t>
   </si>
   <si>
-    <t>PacBioRSII</t>
+    <t>PacBio Sequel II</t>
   </si>
   <si>
     <t>mirnaArray</t>
   </si>
   <si>
-    <t>Perlegen300Karray</t>
+    <t>PacBio Sequel IIe</t>
   </si>
   <si>
     <t>mirnaSeq</t>
   </si>
   <si>
-    <t>PsychChip</t>
+    <t>PacBioRSII</t>
   </si>
   <si>
     <t>MRI</t>
   </si>
   <si>
-    <t>Q Exactive</t>
+    <t>Perlegen300Karray</t>
   </si>
   <si>
     <t>mRNAcounts</t>
   </si>
   <si>
-    <t>Q Exactive HF</t>
+    <t>PsychChip</t>
   </si>
   <si>
     <t>mRNAseq</t>
   </si>
   <si>
-    <t>Q Exactive HF-X</t>
+    <t>Q Exactive</t>
   </si>
   <si>
     <t>MudPIT</t>
   </si>
   <si>
-    <t>Q Exactive Plus</t>
+    <t>Q Exactive HF</t>
   </si>
   <si>
     <t>nextGenerationTargetedSequencing</t>
   </si>
   <si>
-    <t>quadrupole time-of-flight</t>
+    <t>Q Exactive HF-X</t>
   </si>
   <si>
     <t>Nightingale NMR</t>
   </si>
   <si>
-    <t>Roche Cobas</t>
+    <t>Q Exactive Plus</t>
   </si>
   <si>
     <t>NOMe-Seq</t>
   </si>
   <si>
-    <t>SequenomMultiplex</t>
+    <t>quadrupole time-of-flight</t>
   </si>
   <si>
     <t>novelty response behavior</t>
   </si>
   <si>
-    <t>Signa Premier AIR 3T</t>
+    <t>Roche Cobas</t>
   </si>
   <si>
     <t>open field test</t>
   </si>
   <si>
-    <t>Simoa HD-1 Analyzer</t>
+    <t>SequenomMultiplex</t>
   </si>
   <si>
     <t>oxBS-Seq</t>
   </si>
   <si>
-    <t>time-of-flight</t>
+    <t>Signa Premier AIR 3T</t>
   </si>
   <si>
     <t>pharmacodynamics</t>
   </si>
   <si>
-    <t>triple quadrupole</t>
+    <t>Simoa HD-1 Analyzer</t>
   </si>
   <si>
     <t>pharmacokinetics</t>
   </si>
   <si>
-    <t>Xevo G2 QTOF</t>
+    <t>time-of-flight</t>
   </si>
   <si>
     <t>photograph</t>
   </si>
   <si>
-    <t>Xevo TQ-S</t>
+    <t>triple quadrupole</t>
   </si>
   <si>
     <t>polymeraseChainReaction</t>
   </si>
   <si>
+    <t>Xevo G2 QTOF</t>
+  </si>
+  <si>
     <t>Positron Emission Tomography</t>
+  </si>
+  <si>
+    <t>Xevo TQ-S</t>
   </si>
   <si>
     <t>proximity extension assay</t>
@@ -28095,14 +28101,14 @@
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="D2:D1000">
-      <formula1>Sheet2!$D$2:$D$81</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="E2:E1000">
       <formula1>Sheet2!$E$2:$E$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="C2:C1000">
       <formula1>Sheet2!$C$2:$C$123</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="D2:D1000">
+      <formula1>Sheet2!$D$2:$D$83</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId2"/>
@@ -28829,210 +28835,216 @@
       <c r="C82" s="7" t="s">
         <v>181</v>
       </c>
+      <c r="D82" s="7" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="83">
       <c r="C83" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="84">
       <c r="C84" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85">
       <c r="C85" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86">
       <c r="C86" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87">
       <c r="C87" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88">
       <c r="C88" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89">
       <c r="C89" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90">
       <c r="C90" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91">
       <c r="C91" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92">
       <c r="C92" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93">
       <c r="C93" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94">
       <c r="C94" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95">
       <c r="C95" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96">
       <c r="C96" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97">
       <c r="C97" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98">
       <c r="C98" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99">
       <c r="C99" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100">
       <c r="C100" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101">
       <c r="C101" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102">
       <c r="C102" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103">
       <c r="C103" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104">
       <c r="C104" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105">
       <c r="C105" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106">
       <c r="C106" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107">
       <c r="C107" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108">
       <c r="C108" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109">
       <c r="C109" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110">
       <c r="C110" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111">
       <c r="C111" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112">
       <c r="C112" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113">
       <c r="C113" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114">
       <c r="C114" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115">
       <c r="C115" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116">
       <c r="C116" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="117">
       <c r="C117" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="118">
       <c r="C118" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119">
       <c r="C119" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="120">
       <c r="C120" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121">
       <c r="C121" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122">
       <c r="C122" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="123">
       <c r="C123" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/current-excel-manifests/AssayTMTquantitationMetadataTemplate.xlsx
+++ b/current-excel-manifests/AssayTMTquantitationMetadataTemplate.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -855,6 +855,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
